--- a/labs/Lab_13_python_oop/payments_analytics.xlsx
+++ b/labs/Lab_13_python_oop/payments_analytics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\citg\web_lab_aib_frontend\labs\Lab_13_python_oop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Desktop\Labs\WEB-Labs\Web_Lab_AIB_Frontend\labs\Lab_13_python_oop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C788F8D-CC9A-45F2-8EEC-E324A2D7BDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="3075" yWindow="3555" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analytics" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>RePack by Diakov</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -488,6 +489,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,6 +541,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -698,12 +733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A34" sqref="A34"/>
+      <selection pane="topRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
